--- a/biology/Neurosciences/Axoplasme/Axoplasme.xlsx
+++ b/biology/Neurosciences/Axoplasme/Axoplasme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'axoplasme (littéralement «cytoplasme à l'intérieur de l'axone ») est la partie interne du prolongement cellulaire du neurone appelé axone, dans le système nerveux central ou périphérique (selon si neurone de type Golgi I ou II[pas clair]).
 L'axoplasme est rempli de liquide intracellulaire avec une composition principalement constituée de microtubules même s'il possède aussi des organites que l'on retrouve dans le soma du neurone comme les mitochondries ou du réticulum endoplasmique lisse.
